--- a/XIAO_ESP32C6.xlsx
+++ b/XIAO_ESP32C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jppanasonic-my.sharepoint.com/personal/sugahara_tadashi_jp_panasonic_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Library/Mobile Documents/com~apple~CloudDocs/MyPython/xiao_esp32c6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{5F2AA6EB-5336-494A-B316-EF4F09B27584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4EF909-4783-454D-BC2E-BEF25084D255}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C2355C-1803-C74B-8224-18FF4BFD1939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="-14475" windowWidth="23670" windowHeight="13560" activeTab="1" xr2:uid="{5A409F27-6C63-48E6-BCE8-FDD9D79A2EDC}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19520" activeTab="1" xr2:uid="{5A409F27-6C63-48E6-BCE8-FDD9D79A2EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32C6" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>GPIO14=ANT切り替え</t>
     <rPh sb="10" eb="11">
@@ -93,16 +93,10 @@
     <t>SLEEP</t>
   </si>
   <si>
-    <t>GPIO2</t>
-  </si>
-  <si>
     <t>HIGHで有効</t>
   </si>
   <si>
     <t>nFAULT</t>
-  </si>
-  <si>
-    <t>GPIO1</t>
   </si>
   <si>
     <t>optional</t>
@@ -185,11 +179,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GPIO6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPIO7</t>
+    <t>GPIO01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -197,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,14 +812,14 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="15" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="13:13">
       <c r="M15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="13:13">
       <c r="M16" t="s">
         <v>2</v>
       </c>
@@ -842,22 +836,22 @@
   <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.8984375" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -868,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -879,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -890,75 +884,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -967,48 +957,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4">
       <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
